--- a/Work By Yuandong/summaryTables.xlsx
+++ b/Work By Yuandong/summaryTables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yd/Dropbox/IFPRI_Ghana/Work By Yuandong/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB5AB675-DD9E-474D-BED4-76E1AF955D35}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF75C6F2-A68A-954F-BE8A-90284A360FFD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7980" yWindow="460" windowWidth="29780" windowHeight="16060" firstSheet="10" activeTab="15" xr2:uid="{0D7EFCF4-2533-8F43-9D20-449F1539C8A5}"/>
+    <workbookView xWindow="2380" yWindow="460" windowWidth="29780" windowHeight="16060" firstSheet="11" activeTab="17" xr2:uid="{0D7EFCF4-2533-8F43-9D20-449F1539C8A5}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="23" r:id="rId1"/>
@@ -30,13 +30,13 @@
     <sheet name="cage production" sheetId="21" r:id="rId15"/>
     <sheet name="big pond production" sheetId="18" r:id="rId16"/>
     <sheet name="small pond production" sheetId="19" r:id="rId17"/>
-    <sheet name="record keeping" sheetId="15" r:id="rId18"/>
-    <sheet name="N. of ponds &amp;cages" sheetId="6" r:id="rId19"/>
-    <sheet name="months of production" sheetId="7" r:id="rId20"/>
-    <sheet name="fish_farming_history" sheetId="11" r:id="rId21"/>
-    <sheet name="crop_farming" sheetId="13" r:id="rId22"/>
-    <sheet name="cage size" sheetId="16" r:id="rId23"/>
-    <sheet name="fingerling" sheetId="17" r:id="rId24"/>
+    <sheet name="fingerling" sheetId="17" r:id="rId18"/>
+    <sheet name="record keeping" sheetId="15" r:id="rId19"/>
+    <sheet name="N. of ponds &amp;cages" sheetId="6" r:id="rId20"/>
+    <sheet name="months of production" sheetId="7" r:id="rId21"/>
+    <sheet name="fish_farming_history" sheetId="11" r:id="rId22"/>
+    <sheet name="crop_farming" sheetId="13" r:id="rId23"/>
+    <sheet name="cage size" sheetId="16" r:id="rId24"/>
     <sheet name="pond characteristics" sheetId="22" r:id="rId25"/>
   </sheets>
   <calcPr calcId="181029"/>
@@ -26119,7 +26119,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7AB4C8B-9E83-504A-86A0-361E0644AFC9}">
   <dimension ref="B2:X41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
@@ -28392,6 +28392,383 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{734ADC5E-3028-044E-B65F-462C9A8A66D0}">
+  <dimension ref="D1:N19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N31" sqref="N31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="G1" s="1"/>
+    </row>
+    <row r="3" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D3" t="s">
+        <v>549</v>
+      </c>
+      <c r="L3" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="4" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="5" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D5" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M5" s="2">
+        <v>46.15</v>
+      </c>
+      <c r="N5" s="2">
+        <v>43.48</v>
+      </c>
+    </row>
+    <row r="6" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D6" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="E6" s="2">
+        <v>13</v>
+      </c>
+      <c r="F6" s="2">
+        <v>5.8076920000000003</v>
+      </c>
+      <c r="G6" s="2">
+        <v>5</v>
+      </c>
+      <c r="H6" s="2">
+        <v>2.810238</v>
+      </c>
+      <c r="I6" s="2">
+        <v>2</v>
+      </c>
+      <c r="J6" s="2">
+        <v>10</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M6" s="2">
+        <v>23.08</v>
+      </c>
+      <c r="N6" s="2">
+        <v>39.130000000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D7" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="E7" s="2">
+        <v>23</v>
+      </c>
+      <c r="F7" s="2">
+        <v>4.0652169999999996</v>
+      </c>
+      <c r="G7" s="2">
+        <v>5</v>
+      </c>
+      <c r="H7" s="2">
+        <v>2.0905870000000002</v>
+      </c>
+      <c r="I7" s="2">
+        <v>1</v>
+      </c>
+      <c r="J7" s="2">
+        <v>10</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M7" s="2">
+        <v>7.69</v>
+      </c>
+      <c r="N7" s="2">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="8" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D8" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="L8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M8" s="2">
+        <v>23.08</v>
+      </c>
+      <c r="N8" s="2">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="9" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D9" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="E9" s="2">
+        <v>13</v>
+      </c>
+      <c r="F9" s="2">
+        <v>166115.5</v>
+      </c>
+      <c r="G9" s="2">
+        <v>42000</v>
+      </c>
+      <c r="H9" s="2">
+        <v>349440.8</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2">
+        <v>1200000</v>
+      </c>
+    </row>
+    <row r="10" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D10" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="E10" s="2">
+        <v>23</v>
+      </c>
+      <c r="F10" s="2">
+        <v>769804.2</v>
+      </c>
+      <c r="G10" s="2">
+        <v>32000</v>
+      </c>
+      <c r="H10" s="2">
+        <v>2152785</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0</v>
+      </c>
+      <c r="J10" s="9">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="11" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D11" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D12" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="E12" s="2">
+        <v>5</v>
+      </c>
+      <c r="F12" s="2">
+        <v>281600</v>
+      </c>
+      <c r="G12" s="2">
+        <v>80000</v>
+      </c>
+      <c r="H12" s="2">
+        <v>418440.9</v>
+      </c>
+      <c r="I12" s="2">
+        <v>8000</v>
+      </c>
+      <c r="J12" s="2">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="13" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D13" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="E13" s="2">
+        <v>4</v>
+      </c>
+      <c r="F13" s="2">
+        <v>158500</v>
+      </c>
+      <c r="G13" s="2">
+        <v>164000</v>
+      </c>
+      <c r="H13" s="2">
+        <v>163636.79999999999</v>
+      </c>
+      <c r="I13" s="2">
+        <v>6000</v>
+      </c>
+      <c r="J13" s="2">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="14" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D14" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+    </row>
+    <row r="15" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D15" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="E15" s="2">
+        <v>4</v>
+      </c>
+      <c r="F15" s="2">
+        <v>73.75</v>
+      </c>
+      <c r="G15" s="2">
+        <v>77.5</v>
+      </c>
+      <c r="H15" s="2">
+        <v>17.017150000000001</v>
+      </c>
+      <c r="I15" s="2">
+        <v>50</v>
+      </c>
+      <c r="J15" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D16" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="E16" s="2">
+        <v>9</v>
+      </c>
+      <c r="F16" s="2">
+        <v>76.111109999999996</v>
+      </c>
+      <c r="G16" s="2">
+        <v>80</v>
+      </c>
+      <c r="H16" s="2">
+        <v>13.642250000000001</v>
+      </c>
+      <c r="I16" s="2">
+        <v>50</v>
+      </c>
+      <c r="J16" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D17" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+    </row>
+    <row r="18" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D18" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="E18" s="2">
+        <v>11</v>
+      </c>
+      <c r="F18" s="2">
+        <v>19.909089999999999</v>
+      </c>
+      <c r="G18" s="2">
+        <v>21</v>
+      </c>
+      <c r="H18" s="2">
+        <v>9.8127929999999992</v>
+      </c>
+      <c r="I18" s="2">
+        <v>8</v>
+      </c>
+      <c r="J18" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D19" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="E19" s="2">
+        <v>19</v>
+      </c>
+      <c r="F19" s="2">
+        <v>24.894739999999999</v>
+      </c>
+      <c r="G19" s="2">
+        <v>21</v>
+      </c>
+      <c r="H19" s="2">
+        <v>15.314819999999999</v>
+      </c>
+      <c r="I19" s="2">
+        <v>1</v>
+      </c>
+      <c r="J19" s="2">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01FA1F83-FCC0-F04F-8FBB-71E3AABD0981}">
   <dimension ref="C1:K50"/>
   <sheetViews>
@@ -28966,1669 +29343,6 @@
       <c r="I50" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B5028E-2D20-1E4E-9B08-1A6B67BEE95E}">
-  <dimension ref="B1:AC48"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="31" customWidth="1"/>
-    <col min="7" max="7" width="2.6640625" customWidth="1"/>
-    <col min="14" max="14" width="30" customWidth="1"/>
-    <col min="23" max="23" width="34.1640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B1" t="s">
-        <v>563</v>
-      </c>
-      <c r="N1" t="s">
-        <v>89</v>
-      </c>
-      <c r="W1" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="2" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B2" s="15" t="s">
-        <v>578</v>
-      </c>
-      <c r="C2" s="65" t="s">
-        <v>588</v>
-      </c>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="58" t="s">
-        <v>589</v>
-      </c>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="N2" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="W2" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
-      <c r="AA2" s="2"/>
-      <c r="AB2" s="2"/>
-      <c r="AC2" s="2"/>
-    </row>
-    <row r="3" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B3" s="14"/>
-      <c r="C3" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="J3" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="K3" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="Y3" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="Z3" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="AA3" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="AB3" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="AC3" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="4" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="6">
-        <v>111</v>
-      </c>
-      <c r="D4" s="6">
-        <v>0</v>
-      </c>
-      <c r="E4" s="6">
-        <v>1</v>
-      </c>
-      <c r="F4" s="6">
-        <v>112</v>
-      </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="P4" s="2">
-        <v>5</v>
-      </c>
-      <c r="Q4" s="2">
-        <v>4.5</v>
-      </c>
-      <c r="R4" s="2">
-        <v>4.5</v>
-      </c>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="Y4" s="2">
-        <v>4.6216220000000003</v>
-      </c>
-      <c r="Z4" s="2">
-        <v>3</v>
-      </c>
-      <c r="AA4" s="2">
-        <v>6.988372</v>
-      </c>
-      <c r="AB4" s="2">
-        <v>1</v>
-      </c>
-      <c r="AC4" s="2">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B5" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="6">
-        <v>191</v>
-      </c>
-      <c r="D5" s="6">
-        <v>0</v>
-      </c>
-      <c r="E5" s="6">
-        <v>0</v>
-      </c>
-      <c r="F5" s="6">
-        <v>191</v>
-      </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="P5" s="2">
-        <v>101</v>
-      </c>
-      <c r="Q5" s="2">
-        <v>90.99</v>
-      </c>
-      <c r="R5" s="2">
-        <v>95.5</v>
-      </c>
-      <c r="W5" s="2"/>
-      <c r="X5" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="Y5" s="2">
-        <v>2.8378380000000001</v>
-      </c>
-      <c r="Z5" s="2">
-        <v>2</v>
-      </c>
-      <c r="AA5" s="2">
-        <v>2.1848260000000002</v>
-      </c>
-      <c r="AB5" s="2">
-        <v>1</v>
-      </c>
-      <c r="AC5" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B6" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="6">
-        <v>60</v>
-      </c>
-      <c r="D6" s="6">
-        <v>79</v>
-      </c>
-      <c r="E6" s="6">
-        <v>1</v>
-      </c>
-      <c r="F6" s="6">
-        <v>140</v>
-      </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="P6" s="2">
-        <v>5</v>
-      </c>
-      <c r="Q6" s="2">
-        <v>4.5</v>
-      </c>
-      <c r="R6" s="2">
-        <v>100</v>
-      </c>
-      <c r="W6" s="2"/>
-      <c r="X6" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="Y6" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="Z6" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="AA6" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="AB6" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="AC6" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="7" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B7" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="6">
-        <v>10</v>
-      </c>
-      <c r="D7" s="6">
-        <v>25</v>
-      </c>
-      <c r="E7" s="6">
-        <v>1</v>
-      </c>
-      <c r="F7" s="6">
-        <v>36</v>
-      </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="P7" s="2">
-        <v>111</v>
-      </c>
-      <c r="Q7" s="2">
-        <v>100</v>
-      </c>
-      <c r="R7" s="2"/>
-      <c r="W7" s="2"/>
-      <c r="X7" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y7" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="Z7" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="AA7" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="AB7" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="AC7" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="8" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B8" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="16">
-        <v>372</v>
-      </c>
-      <c r="D8" s="16">
-        <v>104</v>
-      </c>
-      <c r="E8" s="16">
-        <v>3</v>
-      </c>
-      <c r="F8" s="16">
-        <v>479</v>
-      </c>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="N8" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="W8" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="X8" s="2"/>
-      <c r="Y8" s="2"/>
-      <c r="Z8" s="2"/>
-      <c r="AA8" s="2"/>
-      <c r="AB8" s="2"/>
-      <c r="AC8" s="2"/>
-    </row>
-    <row r="9" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="N9" s="2"/>
-      <c r="O9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="P9" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="2">
-        <v>100</v>
-      </c>
-      <c r="R9" s="2">
-        <v>100</v>
-      </c>
-      <c r="W9" s="2"/>
-      <c r="X9" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="Y9" s="2">
-        <v>4</v>
-      </c>
-      <c r="Z9" s="2">
-        <v>4</v>
-      </c>
-      <c r="AA9" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="AB9" s="2">
-        <v>4</v>
-      </c>
-      <c r="AC9" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
-        <v>89</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
-      <c r="W10" s="2"/>
-      <c r="X10" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="Y10" s="2">
-        <v>2</v>
-      </c>
-      <c r="Z10" s="2">
-        <v>2</v>
-      </c>
-      <c r="AA10" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="AB10" s="2">
-        <v>2</v>
-      </c>
-      <c r="AC10" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B11" s="2"/>
-      <c r="C11" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="P11" s="2">
-        <v>4</v>
-      </c>
-      <c r="Q11" s="2">
-        <v>2.09</v>
-      </c>
-      <c r="R11" s="2">
-        <v>2.09</v>
-      </c>
-      <c r="W11" s="2"/>
-      <c r="X11" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="Y11" s="2">
-        <v>2</v>
-      </c>
-      <c r="Z11" s="2">
-        <v>2</v>
-      </c>
-      <c r="AA11" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="AB11" s="2">
-        <v>2</v>
-      </c>
-      <c r="AC11" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B12" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="2">
-        <v>23</v>
-      </c>
-      <c r="D12" s="2">
-        <v>4.8</v>
-      </c>
-      <c r="E12" s="2">
-        <v>4.8</v>
-      </c>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="P12" s="2">
-        <v>184</v>
-      </c>
-      <c r="Q12" s="2">
-        <v>96.34</v>
-      </c>
-      <c r="R12" s="2">
-        <v>98.43</v>
-      </c>
-      <c r="W12" s="2"/>
-      <c r="X12" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y12" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z12" s="2">
-        <v>1</v>
-      </c>
-      <c r="AA12" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="AB12" s="2">
-        <v>1</v>
-      </c>
-      <c r="AC12" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="2">
-        <v>440</v>
-      </c>
-      <c r="D13" s="2">
-        <v>91.86</v>
-      </c>
-      <c r="E13" s="2">
-        <v>96.66</v>
-      </c>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="P13" s="2">
-        <v>3</v>
-      </c>
-      <c r="Q13" s="2">
-        <v>1.57</v>
-      </c>
-      <c r="R13" s="2">
-        <v>100</v>
-      </c>
-      <c r="W13" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="X13" s="2"/>
-      <c r="Y13" s="2"/>
-      <c r="Z13" s="2"/>
-      <c r="AA13" s="2"/>
-      <c r="AB13" s="2"/>
-      <c r="AC13" s="2"/>
-    </row>
-    <row r="14" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B14" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="2">
-        <v>16</v>
-      </c>
-      <c r="D14" s="2">
-        <v>3.34</v>
-      </c>
-      <c r="E14" s="2">
-        <v>100</v>
-      </c>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="P14" s="2">
-        <v>191</v>
-      </c>
-      <c r="Q14" s="2">
-        <v>100</v>
-      </c>
-      <c r="R14" s="2"/>
-      <c r="W14" s="2"/>
-      <c r="X14" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="Y14" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="Z14" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="AA14" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="AB14" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="AC14" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="15" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B15" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="2">
-        <v>479</v>
-      </c>
-      <c r="D15" s="2">
-        <v>100</v>
-      </c>
-      <c r="E15" s="2"/>
-      <c r="N15" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
-      <c r="W15" s="2"/>
-      <c r="X15" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="Y15" s="2">
-        <v>4.3403140000000002</v>
-      </c>
-      <c r="Z15" s="2">
-        <v>3</v>
-      </c>
-      <c r="AA15" s="2">
-        <v>3.9609139999999998</v>
-      </c>
-      <c r="AB15" s="2">
-        <v>1</v>
-      </c>
-      <c r="AC15" s="2">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="N16" s="2"/>
-      <c r="O16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="P16" s="2">
-        <v>3</v>
-      </c>
-      <c r="Q16" s="2">
-        <v>5</v>
-      </c>
-      <c r="R16" s="2">
-        <v>5</v>
-      </c>
-      <c r="W16" s="2"/>
-      <c r="X16" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="Y16" s="2">
-        <v>2.314136</v>
-      </c>
-      <c r="Z16" s="2">
-        <v>2</v>
-      </c>
-      <c r="AA16" s="2">
-        <v>1.7698529999999999</v>
-      </c>
-      <c r="AB16" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC16" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
-        <v>562</v>
-      </c>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="P17" s="2">
-        <v>55</v>
-      </c>
-      <c r="Q17" s="2">
-        <v>91.67</v>
-      </c>
-      <c r="R17" s="2">
-        <v>96.67</v>
-      </c>
-      <c r="W17" s="2"/>
-      <c r="X17" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="Y17" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="Z17" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="AA17" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="AB17" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="AC17" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="18" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B18" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="P18" s="2">
-        <v>2</v>
-      </c>
-      <c r="Q18" s="2">
-        <v>3.33</v>
-      </c>
-      <c r="R18" s="2">
-        <v>100</v>
-      </c>
-      <c r="W18" s="2"/>
-      <c r="X18" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y18" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="Z18" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="AA18" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="AB18" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="AC18" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="19" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B19" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C19" s="2">
-        <v>375</v>
-      </c>
-      <c r="D19" s="12">
-        <v>4.5173329999999998</v>
-      </c>
-      <c r="E19" s="12">
-        <v>7.8012810000000004</v>
-      </c>
-      <c r="F19" s="2">
-        <v>1</v>
-      </c>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2">
-        <v>120</v>
-      </c>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="P19" s="2">
-        <v>60</v>
-      </c>
-      <c r="Q19" s="2">
-        <v>100</v>
-      </c>
-      <c r="R19" s="2"/>
-      <c r="W19" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="X19" s="2"/>
-      <c r="Y19" s="2"/>
-      <c r="Z19" s="2"/>
-      <c r="AA19" s="2"/>
-      <c r="AB19" s="2"/>
-      <c r="AC19" s="2"/>
-    </row>
-    <row r="20" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B20" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C20" s="2">
-        <v>375</v>
-      </c>
-      <c r="D20" s="12">
-        <v>2.3839999999999999</v>
-      </c>
-      <c r="E20" s="12">
-        <v>2.0662189999999998</v>
-      </c>
-      <c r="F20" s="2">
-        <v>0</v>
-      </c>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2">
-        <v>17</v>
-      </c>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="N20" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="2"/>
-      <c r="R20" s="2"/>
-      <c r="W20" s="2"/>
-      <c r="X20" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="Y20" s="2">
-        <v>3.3833329999999999</v>
-      </c>
-      <c r="Z20" s="2">
-        <v>2</v>
-      </c>
-      <c r="AA20" s="2">
-        <v>3.940626</v>
-      </c>
-      <c r="AB20" s="2">
-        <v>1</v>
-      </c>
-      <c r="AC20" s="2">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B21" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C21" s="2">
-        <v>107</v>
-      </c>
-      <c r="D21" s="12">
-        <v>17.130839999999999</v>
-      </c>
-      <c r="E21" s="12">
-        <v>25.183129999999998</v>
-      </c>
-      <c r="F21" s="2">
-        <v>1</v>
-      </c>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2">
-        <v>148</v>
-      </c>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="P21" s="2">
-        <v>4</v>
-      </c>
-      <c r="Q21" s="2">
-        <v>5.0599999999999996</v>
-      </c>
-      <c r="R21" s="2">
-        <v>5.0599999999999996</v>
-      </c>
-      <c r="W21" s="2"/>
-      <c r="X21" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="Y21" s="2">
-        <v>1.8333330000000001</v>
-      </c>
-      <c r="Z21" s="2">
-        <v>1</v>
-      </c>
-      <c r="AA21" s="2">
-        <v>2.4575490000000002</v>
-      </c>
-      <c r="AB21" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC21" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B22" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C22" s="2">
-        <v>107</v>
-      </c>
-      <c r="D22" s="12">
-        <v>3.7289720000000002</v>
-      </c>
-      <c r="E22" s="12">
-        <v>3.9323769999999998</v>
-      </c>
-      <c r="F22" s="2">
-        <v>0</v>
-      </c>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2">
-        <v>20</v>
-      </c>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="P22" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q22" s="2">
-        <v>93.67</v>
-      </c>
-      <c r="R22" s="2">
-        <v>98.73</v>
-      </c>
-      <c r="W22" s="2"/>
-      <c r="X22" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="Y22" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="Z22" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="AA22" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="AB22" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="AC22" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="23" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="N23" s="2"/>
-      <c r="O23" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="P23" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q23" s="2">
-        <v>1.27</v>
-      </c>
-      <c r="R23" s="2">
-        <v>100</v>
-      </c>
-      <c r="W23" s="2"/>
-      <c r="X23" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y23" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="Z23" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="AA23" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="AB23" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="AC23" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="24" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="N24" s="2"/>
-      <c r="O24" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="P24" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q24" s="2">
-        <v>100</v>
-      </c>
-      <c r="R24" s="2"/>
-      <c r="W24" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="X24" s="2"/>
-      <c r="Y24" s="2"/>
-      <c r="Z24" s="2"/>
-      <c r="AA24" s="2"/>
-      <c r="AB24" s="2"/>
-      <c r="AC24" s="2"/>
-    </row>
-    <row r="25" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="N25" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="O25" s="2"/>
-      <c r="P25" s="2"/>
-      <c r="Q25" s="2"/>
-      <c r="R25" s="2"/>
-      <c r="W25" s="2"/>
-      <c r="X25" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="Y25" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="Z25" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="AA25" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="AB25" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="AC25" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="26" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="N26" s="2"/>
-      <c r="O26" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="P26" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q26" s="2">
-        <v>100</v>
-      </c>
-      <c r="R26" s="2">
-        <v>100</v>
-      </c>
-      <c r="W26" s="2"/>
-      <c r="X26" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="Y26" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="Z26" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="AA26" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="AB26" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="AC26" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="27" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="N27" s="2"/>
-      <c r="O27" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="P27" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q27" s="2">
-        <v>100</v>
-      </c>
-      <c r="R27" s="2"/>
-      <c r="W27" s="2"/>
-      <c r="X27" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="Y27" s="2">
-        <v>15.06329</v>
-      </c>
-      <c r="Z27" s="2">
-        <v>6</v>
-      </c>
-      <c r="AA27" s="2">
-        <v>25.105080000000001</v>
-      </c>
-      <c r="AB27" s="2">
-        <v>1</v>
-      </c>
-      <c r="AC27" s="2">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="28" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="N28" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="O28" s="2"/>
-      <c r="P28" s="2"/>
-      <c r="Q28" s="2"/>
-      <c r="R28" s="2"/>
-      <c r="W28" s="2"/>
-      <c r="X28" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y28" s="2">
-        <v>3.3291140000000001</v>
-      </c>
-      <c r="Z28" s="2">
-        <v>2</v>
-      </c>
-      <c r="AA28" s="2">
-        <v>3.8153589999999999</v>
-      </c>
-      <c r="AB28" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC28" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="N29" s="2"/>
-      <c r="O29" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="P29" s="2">
-        <v>10</v>
-      </c>
-      <c r="Q29" s="2">
-        <v>100</v>
-      </c>
-      <c r="R29" s="2">
-        <v>100</v>
-      </c>
-      <c r="W29" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="X29" s="2"/>
-      <c r="Y29" s="2"/>
-      <c r="Z29" s="2"/>
-      <c r="AA29" s="2"/>
-      <c r="AB29" s="2"/>
-      <c r="AC29" s="2"/>
-    </row>
-    <row r="30" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="N30" s="2"/>
-      <c r="O30" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="P30" s="2">
-        <v>10</v>
-      </c>
-      <c r="Q30" s="2">
-        <v>100</v>
-      </c>
-      <c r="R30" s="2"/>
-      <c r="W30" s="2"/>
-      <c r="X30" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="Y30" s="2">
-        <v>4</v>
-      </c>
-      <c r="Z30" s="2">
-        <v>4</v>
-      </c>
-      <c r="AA30" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="AB30" s="2">
-        <v>4</v>
-      </c>
-      <c r="AC30" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="N31" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="O31" s="2"/>
-      <c r="P31" s="2"/>
-      <c r="Q31" s="2"/>
-      <c r="R31" s="2"/>
-      <c r="W31" s="2"/>
-      <c r="X31" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="Y31" s="2">
-        <v>2</v>
-      </c>
-      <c r="Z31" s="2">
-        <v>2</v>
-      </c>
-      <c r="AA31" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="AB31" s="2">
-        <v>2</v>
-      </c>
-      <c r="AC31" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="N32" s="2"/>
-      <c r="O32" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="P32" s="2">
-        <v>6</v>
-      </c>
-      <c r="Q32" s="2">
-        <v>24</v>
-      </c>
-      <c r="R32" s="2">
-        <v>24</v>
-      </c>
-      <c r="W32" s="2"/>
-      <c r="X32" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="Y32" s="2">
-        <v>100</v>
-      </c>
-      <c r="Z32" s="2">
-        <v>100</v>
-      </c>
-      <c r="AA32" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="AB32" s="2">
-        <v>100</v>
-      </c>
-      <c r="AC32" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" spans="14:29" x14ac:dyDescent="0.2">
-      <c r="N33" s="2"/>
-      <c r="O33" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="P33" s="2">
-        <v>14</v>
-      </c>
-      <c r="Q33" s="2">
-        <v>56</v>
-      </c>
-      <c r="R33" s="2">
-        <v>80</v>
-      </c>
-      <c r="W33" s="2"/>
-      <c r="X33" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y33" s="2">
-        <v>6</v>
-      </c>
-      <c r="Z33" s="2">
-        <v>6</v>
-      </c>
-      <c r="AA33" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="AB33" s="2">
-        <v>6</v>
-      </c>
-      <c r="AC33" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="14:29" x14ac:dyDescent="0.2">
-      <c r="N34" s="2"/>
-      <c r="O34" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="P34" s="2">
-        <v>5</v>
-      </c>
-      <c r="Q34" s="2">
-        <v>20</v>
-      </c>
-      <c r="R34" s="2">
-        <v>100</v>
-      </c>
-      <c r="W34" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="X34" s="2"/>
-      <c r="Y34" s="2"/>
-      <c r="Z34" s="2"/>
-      <c r="AA34" s="2"/>
-      <c r="AB34" s="2"/>
-      <c r="AC34" s="2"/>
-    </row>
-    <row r="35" spans="14:29" x14ac:dyDescent="0.2">
-      <c r="N35" s="2"/>
-      <c r="O35" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="P35" s="2">
-        <v>25</v>
-      </c>
-      <c r="Q35" s="2">
-        <v>100</v>
-      </c>
-      <c r="R35" s="2"/>
-      <c r="W35" s="2"/>
-      <c r="X35" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="Y35" s="2">
-        <v>13.9</v>
-      </c>
-      <c r="Z35" s="2">
-        <v>2</v>
-      </c>
-      <c r="AA35" s="2">
-        <v>37.298940000000002</v>
-      </c>
-      <c r="AB35" s="2">
-        <v>1</v>
-      </c>
-      <c r="AC35" s="2">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="36" spans="14:29" x14ac:dyDescent="0.2">
-      <c r="N36" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="O36" s="2"/>
-      <c r="P36" s="2"/>
-      <c r="Q36" s="2"/>
-      <c r="R36" s="2"/>
-      <c r="W36" s="2"/>
-      <c r="X36" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="Y36" s="2">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="Z36" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="AA36" s="2">
-        <v>2.8303910000000001</v>
-      </c>
-      <c r="AB36" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC36" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="14:29" x14ac:dyDescent="0.2">
-      <c r="N37" s="2"/>
-      <c r="O37" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="P37" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q37" s="2">
-        <v>100</v>
-      </c>
-      <c r="R37" s="2">
-        <v>100</v>
-      </c>
-      <c r="W37" s="2"/>
-      <c r="X37" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="Y37" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="Z37" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="AA37" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="AB37" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="AC37" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="38" spans="14:29" x14ac:dyDescent="0.2">
-      <c r="N38" s="2"/>
-      <c r="O38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="P38" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q38" s="2">
-        <v>100</v>
-      </c>
-      <c r="R38" s="2"/>
-      <c r="W38" s="2"/>
-      <c r="X38" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y38" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="Z38" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="AA38" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="AB38" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="AC38" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="39" spans="14:29" x14ac:dyDescent="0.2">
-      <c r="W39" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="X39" s="2"/>
-      <c r="Y39" s="2"/>
-      <c r="Z39" s="2"/>
-      <c r="AA39" s="2"/>
-      <c r="AB39" s="2"/>
-      <c r="AC39" s="2"/>
-    </row>
-    <row r="40" spans="14:29" x14ac:dyDescent="0.2">
-      <c r="W40" s="2"/>
-      <c r="X40" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="Y40" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="Z40" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="AA40" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="AB40" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="AC40" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="41" spans="14:29" x14ac:dyDescent="0.2">
-      <c r="W41" s="2"/>
-      <c r="X41" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="Y41" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="Z41" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="AA41" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="AB41" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="AC41" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="42" spans="14:29" x14ac:dyDescent="0.2">
-      <c r="W42" s="2"/>
-      <c r="X42" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="Y42" s="2">
-        <v>21.04</v>
-      </c>
-      <c r="Z42" s="2">
-        <v>12</v>
-      </c>
-      <c r="AA42" s="2">
-        <v>20.658899999999999</v>
-      </c>
-      <c r="AB42" s="2">
-        <v>4</v>
-      </c>
-      <c r="AC42" s="2">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="43" spans="14:29" x14ac:dyDescent="0.2">
-      <c r="W43" s="2"/>
-      <c r="X43" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y43" s="2">
-        <v>5.12</v>
-      </c>
-      <c r="Z43" s="2">
-        <v>4</v>
-      </c>
-      <c r="AA43" s="2">
-        <v>4.1964269999999999</v>
-      </c>
-      <c r="AB43" s="2">
-        <v>1</v>
-      </c>
-      <c r="AC43" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="44" spans="14:29" x14ac:dyDescent="0.2">
-      <c r="W44" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="X44" s="2"/>
-      <c r="Y44" s="2"/>
-      <c r="Z44" s="2"/>
-      <c r="AA44" s="2"/>
-      <c r="AB44" s="2"/>
-      <c r="AC44" s="2"/>
-    </row>
-    <row r="45" spans="14:29" x14ac:dyDescent="0.2">
-      <c r="W45" s="2"/>
-      <c r="X45" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="Y45" s="2">
-        <v>2</v>
-      </c>
-      <c r="Z45" s="2">
-        <v>2</v>
-      </c>
-      <c r="AA45" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="AB45" s="2">
-        <v>2</v>
-      </c>
-      <c r="AC45" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="14:29" x14ac:dyDescent="0.2">
-      <c r="W46" s="2"/>
-      <c r="X46" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="Y46" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z46" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA46" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="AB46" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC46" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="14:29" x14ac:dyDescent="0.2">
-      <c r="W47" s="2"/>
-      <c r="X47" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="Y47" s="2">
-        <v>15</v>
-      </c>
-      <c r="Z47" s="2">
-        <v>15</v>
-      </c>
-      <c r="AA47" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="AB47" s="2">
-        <v>15</v>
-      </c>
-      <c r="AC47" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="48" spans="14:29" x14ac:dyDescent="0.2">
-      <c r="W48" s="2"/>
-      <c r="X48" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y48" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z48" s="2">
-        <v>1</v>
-      </c>
-      <c r="AA48" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="AB48" s="2">
-        <v>1</v>
-      </c>
-      <c r="AC48" s="2">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="H2:K2"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -30762,6 +29476,1669 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B5028E-2D20-1E4E-9B08-1A6B67BEE95E}">
+  <dimension ref="B1:AC48"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="31" customWidth="1"/>
+    <col min="7" max="7" width="2.6640625" customWidth="1"/>
+    <col min="14" max="14" width="30" customWidth="1"/>
+    <col min="23" max="23" width="34.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>563</v>
+      </c>
+      <c r="N1" t="s">
+        <v>89</v>
+      </c>
+      <c r="W1" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="2" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B2" s="15" t="s">
+        <v>578</v>
+      </c>
+      <c r="C2" s="65" t="s">
+        <v>588</v>
+      </c>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="58" t="s">
+        <v>589</v>
+      </c>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="N2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="W2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
+      <c r="AC2" s="2"/>
+    </row>
+    <row r="3" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B3" s="14"/>
+      <c r="C3" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB3" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="6">
+        <v>111</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0</v>
+      </c>
+      <c r="E4" s="6">
+        <v>1</v>
+      </c>
+      <c r="F4" s="6">
+        <v>112</v>
+      </c>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P4" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="R4" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>4.6216220000000003</v>
+      </c>
+      <c r="Z4" s="2">
+        <v>3</v>
+      </c>
+      <c r="AA4" s="2">
+        <v>6.988372</v>
+      </c>
+      <c r="AB4" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC4" s="2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="6">
+        <v>191</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0</v>
+      </c>
+      <c r="F5" s="6">
+        <v>191</v>
+      </c>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P5" s="2">
+        <v>101</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>90.99</v>
+      </c>
+      <c r="R5" s="2">
+        <v>95.5</v>
+      </c>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y5" s="2">
+        <v>2.8378380000000001</v>
+      </c>
+      <c r="Z5" s="2">
+        <v>2</v>
+      </c>
+      <c r="AA5" s="2">
+        <v>2.1848260000000002</v>
+      </c>
+      <c r="AB5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC5" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="6">
+        <v>60</v>
+      </c>
+      <c r="D6" s="6">
+        <v>79</v>
+      </c>
+      <c r="E6" s="6">
+        <v>1</v>
+      </c>
+      <c r="F6" s="6">
+        <v>140</v>
+      </c>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="P6" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="R6" s="2">
+        <v>100</v>
+      </c>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y6" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z6" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA6" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB6" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AC6" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="6">
+        <v>10</v>
+      </c>
+      <c r="D7" s="6">
+        <v>25</v>
+      </c>
+      <c r="E7" s="6">
+        <v>1</v>
+      </c>
+      <c r="F7" s="6">
+        <v>36</v>
+      </c>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P7" s="2">
+        <v>111</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>100</v>
+      </c>
+      <c r="R7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y7" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z7" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA7" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB7" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AC7" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B8" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="16">
+        <v>372</v>
+      </c>
+      <c r="D8" s="16">
+        <v>104</v>
+      </c>
+      <c r="E8" s="16">
+        <v>3</v>
+      </c>
+      <c r="F8" s="16">
+        <v>479</v>
+      </c>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="N8" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="W8" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2"/>
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="2"/>
+      <c r="AC8" s="2"/>
+    </row>
+    <row r="9" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="N9" s="2"/>
+      <c r="O9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P9" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>100</v>
+      </c>
+      <c r="R9" s="2">
+        <v>100</v>
+      </c>
+      <c r="W9" s="2"/>
+      <c r="X9" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y9" s="2">
+        <v>4</v>
+      </c>
+      <c r="Z9" s="2">
+        <v>4</v>
+      </c>
+      <c r="AA9" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB9" s="2">
+        <v>4</v>
+      </c>
+      <c r="AC9" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>89</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y10" s="2">
+        <v>2</v>
+      </c>
+      <c r="Z10" s="2">
+        <v>2</v>
+      </c>
+      <c r="AA10" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB10" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC10" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P11" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>2.09</v>
+      </c>
+      <c r="R11" s="2">
+        <v>2.09</v>
+      </c>
+      <c r="W11" s="2"/>
+      <c r="X11" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y11" s="2">
+        <v>2</v>
+      </c>
+      <c r="Z11" s="2">
+        <v>2</v>
+      </c>
+      <c r="AA11" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB11" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC11" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="2">
+        <v>23</v>
+      </c>
+      <c r="D12" s="2">
+        <v>4.8</v>
+      </c>
+      <c r="E12" s="2">
+        <v>4.8</v>
+      </c>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P12" s="2">
+        <v>184</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>96.34</v>
+      </c>
+      <c r="R12" s="2">
+        <v>98.43</v>
+      </c>
+      <c r="W12" s="2"/>
+      <c r="X12" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y12" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z12" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA12" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB12" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC12" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="2">
+        <v>440</v>
+      </c>
+      <c r="D13" s="2">
+        <v>91.86</v>
+      </c>
+      <c r="E13" s="2">
+        <v>96.66</v>
+      </c>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="P13" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>1.57</v>
+      </c>
+      <c r="R13" s="2">
+        <v>100</v>
+      </c>
+      <c r="W13" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="X13" s="2"/>
+      <c r="Y13" s="2"/>
+      <c r="Z13" s="2"/>
+      <c r="AA13" s="2"/>
+      <c r="AB13" s="2"/>
+      <c r="AC13" s="2"/>
+    </row>
+    <row r="14" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="2">
+        <v>16</v>
+      </c>
+      <c r="D14" s="2">
+        <v>3.34</v>
+      </c>
+      <c r="E14" s="2">
+        <v>100</v>
+      </c>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P14" s="2">
+        <v>191</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>100</v>
+      </c>
+      <c r="R14" s="2"/>
+      <c r="W14" s="2"/>
+      <c r="X14" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y14" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="Z14" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA14" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB14" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="AC14" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="15" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="2">
+        <v>479</v>
+      </c>
+      <c r="D15" s="2">
+        <v>100</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="N15" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="W15" s="2"/>
+      <c r="X15" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y15" s="2">
+        <v>4.3403140000000002</v>
+      </c>
+      <c r="Z15" s="2">
+        <v>3</v>
+      </c>
+      <c r="AA15" s="2">
+        <v>3.9609139999999998</v>
+      </c>
+      <c r="AB15" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC15" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="N16" s="2"/>
+      <c r="O16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P16" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>5</v>
+      </c>
+      <c r="R16" s="2">
+        <v>5</v>
+      </c>
+      <c r="W16" s="2"/>
+      <c r="X16" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y16" s="2">
+        <v>2.314136</v>
+      </c>
+      <c r="Z16" s="2">
+        <v>2</v>
+      </c>
+      <c r="AA16" s="2">
+        <v>1.7698529999999999</v>
+      </c>
+      <c r="AB16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>562</v>
+      </c>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P17" s="2">
+        <v>55</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>91.67</v>
+      </c>
+      <c r="R17" s="2">
+        <v>96.67</v>
+      </c>
+      <c r="W17" s="2"/>
+      <c r="X17" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y17" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z17" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA17" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB17" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AC17" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="P18" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>3.33</v>
+      </c>
+      <c r="R18" s="2">
+        <v>100</v>
+      </c>
+      <c r="W18" s="2"/>
+      <c r="X18" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y18" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z18" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA18" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB18" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AC18" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="19" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B19" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" s="2">
+        <v>375</v>
+      </c>
+      <c r="D19" s="12">
+        <v>4.5173329999999998</v>
+      </c>
+      <c r="E19" s="12">
+        <v>7.8012810000000004</v>
+      </c>
+      <c r="F19" s="2">
+        <v>1</v>
+      </c>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2">
+        <v>120</v>
+      </c>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P19" s="2">
+        <v>60</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>100</v>
+      </c>
+      <c r="R19" s="2"/>
+      <c r="W19" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="X19" s="2"/>
+      <c r="Y19" s="2"/>
+      <c r="Z19" s="2"/>
+      <c r="AA19" s="2"/>
+      <c r="AB19" s="2"/>
+      <c r="AC19" s="2"/>
+    </row>
+    <row r="20" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B20" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" s="2">
+        <v>375</v>
+      </c>
+      <c r="D20" s="12">
+        <v>2.3839999999999999</v>
+      </c>
+      <c r="E20" s="12">
+        <v>2.0662189999999998</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0</v>
+      </c>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2">
+        <v>17</v>
+      </c>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="N20" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="W20" s="2"/>
+      <c r="X20" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y20" s="2">
+        <v>3.3833329999999999</v>
+      </c>
+      <c r="Z20" s="2">
+        <v>2</v>
+      </c>
+      <c r="AA20" s="2">
+        <v>3.940626</v>
+      </c>
+      <c r="AB20" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC20" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B21" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" s="2">
+        <v>107</v>
+      </c>
+      <c r="D21" s="12">
+        <v>17.130839999999999</v>
+      </c>
+      <c r="E21" s="12">
+        <v>25.183129999999998</v>
+      </c>
+      <c r="F21" s="2">
+        <v>1</v>
+      </c>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2">
+        <v>148</v>
+      </c>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P21" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="R21" s="2">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="W21" s="2"/>
+      <c r="X21" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y21" s="2">
+        <v>1.8333330000000001</v>
+      </c>
+      <c r="Z21" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA21" s="2">
+        <v>2.4575490000000002</v>
+      </c>
+      <c r="AB21" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B22" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" s="2">
+        <v>107</v>
+      </c>
+      <c r="D22" s="12">
+        <v>3.7289720000000002</v>
+      </c>
+      <c r="E22" s="12">
+        <v>3.9323769999999998</v>
+      </c>
+      <c r="F22" s="2">
+        <v>0</v>
+      </c>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2">
+        <v>20</v>
+      </c>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P22" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>93.67</v>
+      </c>
+      <c r="R22" s="2">
+        <v>98.73</v>
+      </c>
+      <c r="W22" s="2"/>
+      <c r="X22" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y22" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z22" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA22" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB22" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AC22" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="N23" s="2"/>
+      <c r="O23" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="P23" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>1.27</v>
+      </c>
+      <c r="R23" s="2">
+        <v>100</v>
+      </c>
+      <c r="W23" s="2"/>
+      <c r="X23" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y23" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z23" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA23" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB23" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AC23" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="24" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="N24" s="2"/>
+      <c r="O24" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P24" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q24" s="2">
+        <v>100</v>
+      </c>
+      <c r="R24" s="2"/>
+      <c r="W24" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="X24" s="2"/>
+      <c r="Y24" s="2"/>
+      <c r="Z24" s="2"/>
+      <c r="AA24" s="2"/>
+      <c r="AB24" s="2"/>
+      <c r="AC24" s="2"/>
+    </row>
+    <row r="25" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="N25" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="W25" s="2"/>
+      <c r="X25" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y25" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z25" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA25" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB25" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AC25" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="26" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="N26" s="2"/>
+      <c r="O26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P26" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="2">
+        <v>100</v>
+      </c>
+      <c r="R26" s="2">
+        <v>100</v>
+      </c>
+      <c r="W26" s="2"/>
+      <c r="X26" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y26" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z26" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA26" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB26" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AC26" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="27" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="N27" s="2"/>
+      <c r="O27" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P27" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="2">
+        <v>100</v>
+      </c>
+      <c r="R27" s="2"/>
+      <c r="W27" s="2"/>
+      <c r="X27" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y27" s="2">
+        <v>15.06329</v>
+      </c>
+      <c r="Z27" s="2">
+        <v>6</v>
+      </c>
+      <c r="AA27" s="2">
+        <v>25.105080000000001</v>
+      </c>
+      <c r="AB27" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC27" s="2">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="28" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="N28" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
+      <c r="W28" s="2"/>
+      <c r="X28" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y28" s="2">
+        <v>3.3291140000000001</v>
+      </c>
+      <c r="Z28" s="2">
+        <v>2</v>
+      </c>
+      <c r="AA28" s="2">
+        <v>3.8153589999999999</v>
+      </c>
+      <c r="AB28" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="N29" s="2"/>
+      <c r="O29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P29" s="2">
+        <v>10</v>
+      </c>
+      <c r="Q29" s="2">
+        <v>100</v>
+      </c>
+      <c r="R29" s="2">
+        <v>100</v>
+      </c>
+      <c r="W29" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="X29" s="2"/>
+      <c r="Y29" s="2"/>
+      <c r="Z29" s="2"/>
+      <c r="AA29" s="2"/>
+      <c r="AB29" s="2"/>
+      <c r="AC29" s="2"/>
+    </row>
+    <row r="30" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="N30" s="2"/>
+      <c r="O30" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P30" s="2">
+        <v>10</v>
+      </c>
+      <c r="Q30" s="2">
+        <v>100</v>
+      </c>
+      <c r="R30" s="2"/>
+      <c r="W30" s="2"/>
+      <c r="X30" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y30" s="2">
+        <v>4</v>
+      </c>
+      <c r="Z30" s="2">
+        <v>4</v>
+      </c>
+      <c r="AA30" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB30" s="2">
+        <v>4</v>
+      </c>
+      <c r="AC30" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="N31" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2"/>
+      <c r="W31" s="2"/>
+      <c r="X31" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y31" s="2">
+        <v>2</v>
+      </c>
+      <c r="Z31" s="2">
+        <v>2</v>
+      </c>
+      <c r="AA31" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB31" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC31" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="N32" s="2"/>
+      <c r="O32" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P32" s="2">
+        <v>6</v>
+      </c>
+      <c r="Q32" s="2">
+        <v>24</v>
+      </c>
+      <c r="R32" s="2">
+        <v>24</v>
+      </c>
+      <c r="W32" s="2"/>
+      <c r="X32" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y32" s="2">
+        <v>100</v>
+      </c>
+      <c r="Z32" s="2">
+        <v>100</v>
+      </c>
+      <c r="AA32" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB32" s="2">
+        <v>100</v>
+      </c>
+      <c r="AC32" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="14:29" x14ac:dyDescent="0.2">
+      <c r="N33" s="2"/>
+      <c r="O33" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P33" s="2">
+        <v>14</v>
+      </c>
+      <c r="Q33" s="2">
+        <v>56</v>
+      </c>
+      <c r="R33" s="2">
+        <v>80</v>
+      </c>
+      <c r="W33" s="2"/>
+      <c r="X33" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y33" s="2">
+        <v>6</v>
+      </c>
+      <c r="Z33" s="2">
+        <v>6</v>
+      </c>
+      <c r="AA33" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB33" s="2">
+        <v>6</v>
+      </c>
+      <c r="AC33" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="14:29" x14ac:dyDescent="0.2">
+      <c r="N34" s="2"/>
+      <c r="O34" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="P34" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q34" s="2">
+        <v>20</v>
+      </c>
+      <c r="R34" s="2">
+        <v>100</v>
+      </c>
+      <c r="W34" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="X34" s="2"/>
+      <c r="Y34" s="2"/>
+      <c r="Z34" s="2"/>
+      <c r="AA34" s="2"/>
+      <c r="AB34" s="2"/>
+      <c r="AC34" s="2"/>
+    </row>
+    <row r="35" spans="14:29" x14ac:dyDescent="0.2">
+      <c r="N35" s="2"/>
+      <c r="O35" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P35" s="2">
+        <v>25</v>
+      </c>
+      <c r="Q35" s="2">
+        <v>100</v>
+      </c>
+      <c r="R35" s="2"/>
+      <c r="W35" s="2"/>
+      <c r="X35" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y35" s="2">
+        <v>13.9</v>
+      </c>
+      <c r="Z35" s="2">
+        <v>2</v>
+      </c>
+      <c r="AA35" s="2">
+        <v>37.298940000000002</v>
+      </c>
+      <c r="AB35" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC35" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="36" spans="14:29" x14ac:dyDescent="0.2">
+      <c r="N36" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+      <c r="W36" s="2"/>
+      <c r="X36" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y36" s="2">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="Z36" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="AA36" s="2">
+        <v>2.8303910000000001</v>
+      </c>
+      <c r="AB36" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC36" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="14:29" x14ac:dyDescent="0.2">
+      <c r="N37" s="2"/>
+      <c r="O37" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P37" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q37" s="2">
+        <v>100</v>
+      </c>
+      <c r="R37" s="2">
+        <v>100</v>
+      </c>
+      <c r="W37" s="2"/>
+      <c r="X37" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y37" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z37" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA37" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB37" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AC37" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="38" spans="14:29" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P38" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q38" s="2">
+        <v>100</v>
+      </c>
+      <c r="R38" s="2"/>
+      <c r="W38" s="2"/>
+      <c r="X38" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y38" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z38" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA38" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB38" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AC38" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="39" spans="14:29" x14ac:dyDescent="0.2">
+      <c r="W39" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="X39" s="2"/>
+      <c r="Y39" s="2"/>
+      <c r="Z39" s="2"/>
+      <c r="AA39" s="2"/>
+      <c r="AB39" s="2"/>
+      <c r="AC39" s="2"/>
+    </row>
+    <row r="40" spans="14:29" x14ac:dyDescent="0.2">
+      <c r="W40" s="2"/>
+      <c r="X40" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y40" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z40" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA40" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB40" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AC40" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="41" spans="14:29" x14ac:dyDescent="0.2">
+      <c r="W41" s="2"/>
+      <c r="X41" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y41" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z41" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA41" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB41" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AC41" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="42" spans="14:29" x14ac:dyDescent="0.2">
+      <c r="W42" s="2"/>
+      <c r="X42" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y42" s="2">
+        <v>21.04</v>
+      </c>
+      <c r="Z42" s="2">
+        <v>12</v>
+      </c>
+      <c r="AA42" s="2">
+        <v>20.658899999999999</v>
+      </c>
+      <c r="AB42" s="2">
+        <v>4</v>
+      </c>
+      <c r="AC42" s="2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="43" spans="14:29" x14ac:dyDescent="0.2">
+      <c r="W43" s="2"/>
+      <c r="X43" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y43" s="2">
+        <v>5.12</v>
+      </c>
+      <c r="Z43" s="2">
+        <v>4</v>
+      </c>
+      <c r="AA43" s="2">
+        <v>4.1964269999999999</v>
+      </c>
+      <c r="AB43" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC43" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="14:29" x14ac:dyDescent="0.2">
+      <c r="W44" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="X44" s="2"/>
+      <c r="Y44" s="2"/>
+      <c r="Z44" s="2"/>
+      <c r="AA44" s="2"/>
+      <c r="AB44" s="2"/>
+      <c r="AC44" s="2"/>
+    </row>
+    <row r="45" spans="14:29" x14ac:dyDescent="0.2">
+      <c r="W45" s="2"/>
+      <c r="X45" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y45" s="2">
+        <v>2</v>
+      </c>
+      <c r="Z45" s="2">
+        <v>2</v>
+      </c>
+      <c r="AA45" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB45" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC45" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="14:29" x14ac:dyDescent="0.2">
+      <c r="W46" s="2"/>
+      <c r="X46" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y46" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z46" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA46" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB46" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC46" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="14:29" x14ac:dyDescent="0.2">
+      <c r="W47" s="2"/>
+      <c r="X47" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y47" s="2">
+        <v>15</v>
+      </c>
+      <c r="Z47" s="2">
+        <v>15</v>
+      </c>
+      <c r="AA47" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB47" s="2">
+        <v>15</v>
+      </c>
+      <c r="AC47" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="14:29" x14ac:dyDescent="0.2">
+      <c r="W48" s="2"/>
+      <c r="X48" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y48" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z48" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA48" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB48" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC48" s="2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="H2:K2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{136AAB0D-E6D8-6E42-B671-78C2B40E2E4C}">
   <dimension ref="B2:H24"/>
   <sheetViews>
@@ -31179,7 +31556,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5484C707-BD89-5148-AF91-2DB7BE19B942}">
   <dimension ref="B1:M15"/>
   <sheetViews>
@@ -31536,7 +31913,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BCA400E-1EAB-0744-9356-C2D4DEE16E1E}">
   <dimension ref="A1:N155"/>
   <sheetViews>
@@ -33754,7 +34131,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BB98F13-3983-B54B-99A1-E404B7411E36}">
   <dimension ref="B1:H30"/>
   <sheetViews>
@@ -34152,383 +34529,6 @@
       </c>
       <c r="E30" s="2">
         <v>3.7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{734ADC5E-3028-044E-B65F-462C9A8A66D0}">
-  <dimension ref="D1:N19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="G1" s="1"/>
-    </row>
-    <row r="3" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D3" t="s">
-        <v>549</v>
-      </c>
-      <c r="L3" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="4" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D4" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="5" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D5" s="2" t="s">
-        <v>544</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M5" s="2">
-        <v>46.15</v>
-      </c>
-      <c r="N5" s="2">
-        <v>43.48</v>
-      </c>
-    </row>
-    <row r="6" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D6" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="E6" s="2">
-        <v>13</v>
-      </c>
-      <c r="F6" s="2">
-        <v>5.8076920000000003</v>
-      </c>
-      <c r="G6" s="2">
-        <v>5</v>
-      </c>
-      <c r="H6" s="2">
-        <v>2.810238</v>
-      </c>
-      <c r="I6" s="2">
-        <v>2</v>
-      </c>
-      <c r="J6" s="2">
-        <v>10</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="M6" s="2">
-        <v>23.08</v>
-      </c>
-      <c r="N6" s="2">
-        <v>39.130000000000003</v>
-      </c>
-    </row>
-    <row r="7" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D7" s="2" t="s">
-        <v>543</v>
-      </c>
-      <c r="E7" s="2">
-        <v>23</v>
-      </c>
-      <c r="F7" s="2">
-        <v>4.0652169999999996</v>
-      </c>
-      <c r="G7" s="2">
-        <v>5</v>
-      </c>
-      <c r="H7" s="2">
-        <v>2.0905870000000002</v>
-      </c>
-      <c r="I7" s="2">
-        <v>1</v>
-      </c>
-      <c r="J7" s="2">
-        <v>10</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="M7" s="2">
-        <v>7.69</v>
-      </c>
-      <c r="N7" s="2">
-        <v>8.6999999999999993</v>
-      </c>
-    </row>
-    <row r="8" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D8" s="2" t="s">
-        <v>545</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="L8" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="M8" s="2">
-        <v>23.08</v>
-      </c>
-      <c r="N8" s="2">
-        <v>8.6999999999999993</v>
-      </c>
-    </row>
-    <row r="9" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D9" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="E9" s="2">
-        <v>13</v>
-      </c>
-      <c r="F9" s="2">
-        <v>166115.5</v>
-      </c>
-      <c r="G9" s="2">
-        <v>42000</v>
-      </c>
-      <c r="H9" s="2">
-        <v>349440.8</v>
-      </c>
-      <c r="I9" s="2">
-        <v>0</v>
-      </c>
-      <c r="J9" s="2">
-        <v>1200000</v>
-      </c>
-    </row>
-    <row r="10" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D10" s="2" t="s">
-        <v>543</v>
-      </c>
-      <c r="E10" s="2">
-        <v>23</v>
-      </c>
-      <c r="F10" s="2">
-        <v>769804.2</v>
-      </c>
-      <c r="G10" s="2">
-        <v>32000</v>
-      </c>
-      <c r="H10" s="2">
-        <v>2152785</v>
-      </c>
-      <c r="I10" s="2">
-        <v>0</v>
-      </c>
-      <c r="J10" s="9">
-        <v>10000000</v>
-      </c>
-    </row>
-    <row r="11" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D11" s="2" t="s">
-        <v>546</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-    </row>
-    <row r="12" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D12" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="E12" s="2">
-        <v>5</v>
-      </c>
-      <c r="F12" s="2">
-        <v>281600</v>
-      </c>
-      <c r="G12" s="2">
-        <v>80000</v>
-      </c>
-      <c r="H12" s="2">
-        <v>418440.9</v>
-      </c>
-      <c r="I12" s="2">
-        <v>8000</v>
-      </c>
-      <c r="J12" s="2">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="13" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D13" s="2" t="s">
-        <v>543</v>
-      </c>
-      <c r="E13" s="2">
-        <v>4</v>
-      </c>
-      <c r="F13" s="2">
-        <v>158500</v>
-      </c>
-      <c r="G13" s="2">
-        <v>164000</v>
-      </c>
-      <c r="H13" s="2">
-        <v>163636.79999999999</v>
-      </c>
-      <c r="I13" s="2">
-        <v>6000</v>
-      </c>
-      <c r="J13" s="2">
-        <v>300000</v>
-      </c>
-    </row>
-    <row r="14" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D14" s="2" t="s">
-        <v>547</v>
-      </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-    </row>
-    <row r="15" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D15" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="E15" s="2">
-        <v>4</v>
-      </c>
-      <c r="F15" s="2">
-        <v>73.75</v>
-      </c>
-      <c r="G15" s="2">
-        <v>77.5</v>
-      </c>
-      <c r="H15" s="2">
-        <v>17.017150000000001</v>
-      </c>
-      <c r="I15" s="2">
-        <v>50</v>
-      </c>
-      <c r="J15" s="2">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="16" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D16" s="2" t="s">
-        <v>543</v>
-      </c>
-      <c r="E16" s="2">
-        <v>9</v>
-      </c>
-      <c r="F16" s="2">
-        <v>76.111109999999996</v>
-      </c>
-      <c r="G16" s="2">
-        <v>80</v>
-      </c>
-      <c r="H16" s="2">
-        <v>13.642250000000001</v>
-      </c>
-      <c r="I16" s="2">
-        <v>50</v>
-      </c>
-      <c r="J16" s="2">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="17" spans="4:10" x14ac:dyDescent="0.2">
-      <c r="D17" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-    </row>
-    <row r="18" spans="4:10" x14ac:dyDescent="0.2">
-      <c r="D18" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="E18" s="2">
-        <v>11</v>
-      </c>
-      <c r="F18" s="2">
-        <v>19.909089999999999</v>
-      </c>
-      <c r="G18" s="2">
-        <v>21</v>
-      </c>
-      <c r="H18" s="2">
-        <v>9.8127929999999992</v>
-      </c>
-      <c r="I18" s="2">
-        <v>8</v>
-      </c>
-      <c r="J18" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="4:10" x14ac:dyDescent="0.2">
-      <c r="D19" s="2" t="s">
-        <v>543</v>
-      </c>
-      <c r="E19" s="2">
-        <v>19</v>
-      </c>
-      <c r="F19" s="2">
-        <v>24.894739999999999</v>
-      </c>
-      <c r="G19" s="2">
-        <v>21</v>
-      </c>
-      <c r="H19" s="2">
-        <v>15.314819999999999</v>
-      </c>
-      <c r="I19" s="2">
-        <v>1</v>
-      </c>
-      <c r="J19" s="2">
-        <v>60</v>
       </c>
     </row>
   </sheetData>
